--- a/biology/Zoologie/Colpa/Colpa.xlsx
+++ b/biology/Zoologie/Colpa/Colpa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colpa est un genre d’insectes de la famille des Scoliidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces et sous-genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (26 août 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (26 août 2019) :
 sous-genre Colpa (Carbonelis) Betrem, 1969
 Colpa carbonaria (Klug, 1832)
 sous-genre Colpa (Colpa) Dufour, 1841
@@ -542,7 +556,7 @@
 sous-genre Colpa (Trielis) Saussure, 1863
 Colpa octomaculata (Say, 1823)
 Colpa pollenifera (Viereck, 1906)
-Selon BioLib                    (26 août 2019)[1] :
+Selon BioLib                    (26 août 2019) :
 Colpa alcione (Banks, 1917)
 Colpa carbonaria (Klug, 1832)
 Colpa expeditionis Betrem, 1972
@@ -563,7 +577,7 @@
 Colpa stigma (de Saussure, 1859)
 Colpa techowi (Turner, 1910)
 Colpa voiensis (Betrem, 1972)
-Selon NCBI  (26 août 2019)[2] :
+Selon NCBI  (26 août 2019) :
 Colpa interrupta
 Colpa octomaculata
 Colpa sexmaculata (Fabricius, 1782)</t>
